--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H2">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I2">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J2">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N2">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O2">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P2">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q2">
-        <v>20.54636408007144</v>
+        <v>23.92206299861278</v>
       </c>
       <c r="R2">
-        <v>184.917276720643</v>
+        <v>215.298566987515</v>
       </c>
       <c r="S2">
-        <v>0.0006822766092152947</v>
+        <v>0.0007156360082098151</v>
       </c>
       <c r="T2">
-        <v>0.0007147479025852445</v>
+        <v>0.000742156513460163</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H3">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I3">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J3">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.241766</v>
       </c>
       <c r="O3">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P3">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q3">
-        <v>29.97326722086155</v>
+        <v>40.16903191455489</v>
       </c>
       <c r="R3">
-        <v>269.759404987754</v>
+        <v>361.521287230994</v>
       </c>
       <c r="S3">
-        <v>0.0009953127982575034</v>
+        <v>0.001201669172706873</v>
       </c>
       <c r="T3">
-        <v>0.001042682286571423</v>
+        <v>0.001246201411496359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H4">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I4">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J4">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N4">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O4">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P4">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q4">
-        <v>39.16746781945255</v>
+        <v>65.82577392881723</v>
       </c>
       <c r="R4">
-        <v>352.507210375073</v>
+        <v>592.431965359355</v>
       </c>
       <c r="S4">
-        <v>0.001300621707629759</v>
+        <v>0.001969198647059502</v>
       </c>
       <c r="T4">
-        <v>0.001362521629833371</v>
+        <v>0.002042174492963288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H5">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I5">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J5">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N5">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O5">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P5">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q5">
-        <v>21.145770989966</v>
+        <v>16.73727217158333</v>
       </c>
       <c r="R5">
-        <v>126.874625939796</v>
+        <v>100.4236330295</v>
       </c>
       <c r="S5">
-        <v>0.0007021809247637447</v>
+        <v>0.000500700739977472</v>
       </c>
       <c r="T5">
-        <v>0.0004903996770337108</v>
+        <v>0.0003461706893873498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.73790633333333</v>
+        <v>37.17328633333333</v>
       </c>
       <c r="H6">
-        <v>83.213719</v>
+        <v>111.519859</v>
       </c>
       <c r="I6">
-        <v>0.005442473085408622</v>
+        <v>0.005170079968594893</v>
       </c>
       <c r="J6">
-        <v>0.005456294496964538</v>
+        <v>0.005188590814393131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N6">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O6">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P6">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q6">
-        <v>53.06404794082722</v>
+        <v>26.16972097456689</v>
       </c>
       <c r="R6">
-        <v>477.576431467445</v>
+        <v>235.527488771102</v>
       </c>
       <c r="S6">
-        <v>0.001762081045542319</v>
+        <v>0.0007828754006412299</v>
       </c>
       <c r="T6">
-        <v>0.001845943000940789</v>
+        <v>0.0008118877070859705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>135.476761</v>
       </c>
       <c r="I7">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J7">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N7">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O7">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P7">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q7">
-        <v>33.45067242932411</v>
+        <v>29.06104473724278</v>
       </c>
       <c r="R7">
-        <v>301.056051863917</v>
+        <v>261.549402635185</v>
       </c>
       <c r="S7">
-        <v>0.001110785892438612</v>
+        <v>0.0008693702567112746</v>
       </c>
       <c r="T7">
-        <v>0.001163651041408118</v>
+        <v>0.0009015879458620531</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>135.476761</v>
       </c>
       <c r="I8">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J8">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.241766</v>
       </c>
       <c r="O8">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P8">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q8">
         <v>48.79821751110289</v>
@@ -948,10 +948,10 @@
         <v>439.183957599926</v>
       </c>
       <c r="S8">
-        <v>0.001620426964570266</v>
+        <v>0.001459813962927238</v>
       </c>
       <c r="T8">
-        <v>0.001697547239016805</v>
+        <v>0.001513912699469562</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>135.476761</v>
       </c>
       <c r="I9">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J9">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N9">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O9">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P9">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q9">
-        <v>63.76690935723189</v>
+        <v>79.96658821272723</v>
       </c>
       <c r="R9">
-        <v>573.902184215087</v>
+        <v>719.6992939145451</v>
       </c>
       <c r="S9">
-        <v>0.002117487577210301</v>
+        <v>0.002392225535984614</v>
       </c>
       <c r="T9">
-        <v>0.002218264240807049</v>
+        <v>0.002480878187834542</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>135.476761</v>
       </c>
       <c r="I10">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J10">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N10">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O10">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P10">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q10">
-        <v>34.426541644754</v>
+        <v>20.33280388008334</v>
       </c>
       <c r="R10">
-        <v>206.559249868524</v>
+        <v>121.9968232805</v>
       </c>
       <c r="S10">
-        <v>0.001143191272619084</v>
+        <v>0.0006082621973405751</v>
       </c>
       <c r="T10">
-        <v>0.0007983991178182197</v>
+        <v>0.0004205357159870085</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>135.476761</v>
       </c>
       <c r="I11">
-        <v>0.008860661851212738</v>
+        <v>0.006280726092526873</v>
       </c>
       <c r="J11">
-        <v>0.008883163910879647</v>
+        <v>0.006303213472394487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N11">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O11">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P11">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q11">
-        <v>86.39134780855056</v>
+        <v>31.79154874925089</v>
       </c>
       <c r="R11">
-        <v>777.5221302769551</v>
+        <v>286.1239387432581</v>
       </c>
       <c r="S11">
-        <v>0.002868770144374475</v>
+        <v>0.000951054139563171</v>
       </c>
       <c r="T11">
-        <v>0.003005302271829457</v>
+        <v>0.0009862989232413218</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H12">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I12">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J12">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N12">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O12">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P12">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q12">
-        <v>1935.287972256895</v>
+        <v>1528.764531516033</v>
       </c>
       <c r="R12">
-        <v>17417.59175031205</v>
+        <v>13758.8807836443</v>
       </c>
       <c r="S12">
-        <v>0.06426449518858064</v>
+        <v>0.04573346984707483</v>
       </c>
       <c r="T12">
-        <v>0.06732300730574109</v>
+        <v>0.04742829055660008</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H13">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I13">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J13">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.241766</v>
       </c>
       <c r="O13">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P13">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q13">
-        <v>2823.219880447748</v>
+        <v>2567.044124073586</v>
       </c>
       <c r="R13">
-        <v>25408.97892402973</v>
+        <v>23103.39711666228</v>
       </c>
       <c r="S13">
-        <v>0.09374976903915555</v>
+        <v>0.0767939291003879</v>
       </c>
       <c r="T13">
-        <v>0.09821156094689311</v>
+        <v>0.07963980853705341</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H14">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I14">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J14">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N14">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O14">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P14">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q14">
-        <v>3689.233242404508</v>
+        <v>4206.665137860567</v>
       </c>
       <c r="R14">
-        <v>33203.09918164058</v>
+        <v>37859.9862407451</v>
       </c>
       <c r="S14">
-        <v>0.1225072006620134</v>
+        <v>0.1258437053404842</v>
       </c>
       <c r="T14">
-        <v>0.1283376324823313</v>
+        <v>0.1305073033287328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H15">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I15">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J15">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N15">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O15">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P15">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q15">
-        <v>1991.746865844386</v>
+        <v>1069.612936465</v>
       </c>
       <c r="R15">
-        <v>11950.48119506632</v>
+        <v>6417.67761879</v>
       </c>
       <c r="S15">
-        <v>0.066139307799065</v>
+        <v>0.03199780605150063</v>
       </c>
       <c r="T15">
-        <v>0.04619136470391533</v>
+        <v>0.0221224010578236</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2612.668416333333</v>
+        <v>2375.59786</v>
       </c>
       <c r="H16">
-        <v>7838.005248999999</v>
+        <v>7126.79358</v>
       </c>
       <c r="I16">
-        <v>0.5126334109760675</v>
+        <v>0.3303993840977568</v>
       </c>
       <c r="J16">
-        <v>0.5139352671798968</v>
+        <v>0.3315823391174117</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N16">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O16">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P16">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q16">
-        <v>4998.169668313843</v>
+        <v>1672.403472389027</v>
       </c>
       <c r="R16">
-        <v>44983.52701482459</v>
+        <v>15051.63125150124</v>
       </c>
       <c r="S16">
-        <v>0.1659726382872529</v>
+        <v>0.05003047375830923</v>
       </c>
       <c r="T16">
-        <v>0.173871701741016</v>
+        <v>0.05188453563720175</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H17">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I17">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J17">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N17">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O17">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P17">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q17">
-        <v>28.68894252495467</v>
+        <v>49.52214693380834</v>
       </c>
       <c r="R17">
-        <v>172.133655149728</v>
+        <v>297.13288160285</v>
       </c>
       <c r="S17">
-        <v>0.0009526646345610015</v>
+        <v>0.001481470538378971</v>
       </c>
       <c r="T17">
-        <v>0.0006653362582689675</v>
+        <v>0.00102424789226549</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H18">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I18">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J18">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.241766</v>
       </c>
       <c r="O18">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P18">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q18">
-        <v>41.85175232139733</v>
+        <v>83.15573371647666</v>
       </c>
       <c r="R18">
-        <v>251.1105139283841</v>
+        <v>498.93440229886</v>
       </c>
       <c r="S18">
-        <v>0.001389757893527117</v>
+        <v>0.002487629822731784</v>
       </c>
       <c r="T18">
-        <v>0.0009706000235908687</v>
+        <v>0.001719878685848034</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H19">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I19">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J19">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N19">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O19">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P19">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q19">
-        <v>54.68963894250134</v>
+        <v>136.2689183087417</v>
       </c>
       <c r="R19">
-        <v>328.137833655008</v>
+        <v>817.6135098524501</v>
       </c>
       <c r="S19">
-        <v>0.00181606153144585</v>
+        <v>0.004076527377559047</v>
       </c>
       <c r="T19">
-        <v>0.001268328371059126</v>
+        <v>0.002818398655970658</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H20">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I20">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J20">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N20">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O20">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P20">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q20">
-        <v>29.52589597910401</v>
+        <v>34.64858577625</v>
       </c>
       <c r="R20">
-        <v>118.103583916416</v>
+        <v>138.594343105</v>
       </c>
       <c r="S20">
-        <v>0.0009804570830225716</v>
+        <v>0.001036523297195096</v>
       </c>
       <c r="T20">
-        <v>0.0004564975776686596</v>
+        <v>0.0004777490900349238</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.730512</v>
+        <v>76.954105</v>
       </c>
       <c r="H21">
-        <v>77.46102400000001</v>
+        <v>153.90821</v>
       </c>
       <c r="I21">
-        <v>0.007599339568422451</v>
+        <v>0.01070281688829022</v>
       </c>
       <c r="J21">
-        <v>0.005079092294630385</v>
+        <v>0.007160758019481436</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N21">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O21">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P21">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q21">
-        <v>74.09347053245335</v>
+        <v>54.17512558989667</v>
       </c>
       <c r="R21">
-        <v>444.5608231947201</v>
+        <v>325.05075353938</v>
       </c>
       <c r="S21">
-        <v>0.002460398425865909</v>
+        <v>0.001620665852425323</v>
       </c>
       <c r="T21">
-        <v>0.001718330064042763</v>
+        <v>0.00112048369536233</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H22">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I22">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J22">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N22">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O22">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P22">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q22">
-        <v>1757.214966988691</v>
+        <v>2995.75013302732</v>
       </c>
       <c r="R22">
-        <v>15814.93470289822</v>
+        <v>26961.75119724588</v>
       </c>
       <c r="S22">
-        <v>0.05835128126159642</v>
+        <v>0.08961880365075599</v>
       </c>
       <c r="T22">
-        <v>0.06112836836492969</v>
+        <v>0.09293995564071141</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H23">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I23">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J23">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.241766</v>
       </c>
       <c r="O23">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P23">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q23">
-        <v>2563.444975704253</v>
+        <v>5030.351383515071</v>
       </c>
       <c r="R23">
-        <v>23071.00478133827</v>
+        <v>45273.16245163565</v>
       </c>
       <c r="S23">
-        <v>0.08512350599441923</v>
+        <v>0.1504845373996465</v>
       </c>
       <c r="T23">
-        <v>0.08917475192384143</v>
+        <v>0.1560612913896909</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H24">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I24">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J24">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N24">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O24">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P24">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q24">
-        <v>3349.77324470494</v>
+        <v>8243.334657856049</v>
       </c>
       <c r="R24">
-        <v>30147.95920234446</v>
+        <v>74190.01192070445</v>
       </c>
       <c r="S24">
-        <v>0.1112348599553024</v>
+        <v>0.2466019385212645</v>
       </c>
       <c r="T24">
-        <v>0.1165288121761298</v>
+        <v>0.2557406737585525</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H25">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I25">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J25">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N25">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O25">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P25">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q25">
-        <v>1808.478868926688</v>
+        <v>2096.001725998417</v>
       </c>
       <c r="R25">
-        <v>10850.87321356013</v>
+        <v>12576.0103559905</v>
       </c>
       <c r="S25">
-        <v>0.06005358542855735</v>
+        <v>0.06270254820754262</v>
       </c>
       <c r="T25">
-        <v>0.04194112636823578</v>
+        <v>0.04335081338271075</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2372.267130666667</v>
+        <v>4655.195393666666</v>
       </c>
       <c r="H26">
-        <v>7116.801392</v>
+        <v>13965.586181</v>
       </c>
       <c r="I26">
-        <v>0.4654641145188886</v>
+        <v>0.6474469929528313</v>
       </c>
       <c r="J26">
-        <v>0.4666461821176285</v>
+        <v>0.6497650985763194</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N26">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O26">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P26">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q26">
-        <v>4538.269588100418</v>
+        <v>3277.223419041779</v>
       </c>
       <c r="R26">
-        <v>40844.42629290376</v>
+        <v>29495.01077137602</v>
       </c>
       <c r="S26">
-        <v>0.1507008818790132</v>
+        <v>0.09803916517362166</v>
       </c>
       <c r="T26">
-        <v>0.1578731232844919</v>
+        <v>0.1016723644046537</v>
       </c>
     </row>
   </sheetData>
